--- a/data/financial_statements/sofp/DAL.xlsx
+++ b/data/financial_statements/sofp/DAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,3138 +608,3213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>8517000000</v>
+        <v>6534000000</v>
       </c>
       <c r="C2">
-        <v>10924000000</v>
+        <v>8368000000</v>
       </c>
       <c r="D2">
-        <v>10125000000</v>
+        <v>10770000000</v>
       </c>
       <c r="E2">
-        <v>11482000000</v>
+        <v>9955000000</v>
       </c>
       <c r="F2">
-        <v>13364000000</v>
+        <v>11319000000</v>
       </c>
       <c r="G2">
+        <v>13202000000</v>
+      </c>
+      <c r="H2">
         <v>15230000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>14035000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14096000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21525000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>15668000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5967000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2882000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1899000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2009000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1910000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1565000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1858000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2406000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1970000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2639000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2438000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2988000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2650000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3249000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3152000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2951000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2914000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3437000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3811000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3787000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3569000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3305000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4511000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4202000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3783000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3803000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4190000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4096000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3885000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>3176000000</v>
+      </c>
+      <c r="C3">
         <v>3097000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3093000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3039000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2404000000</v>
       </c>
-      <c r="F3">
-        <v>2183000000</v>
-      </c>
       <c r="G3">
+        <v>2824000000</v>
+      </c>
+      <c r="H3">
         <v>2899000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2294000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1773000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1503000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1728000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2280000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2854000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2836000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2844000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3154000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2314000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2517000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2427000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2568000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2377000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2399000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2164000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2307000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2064000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1996000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2102000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2633000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2020000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2355000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2100000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2440000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>3222000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2135000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2104000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2042000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1612000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1969000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2084000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1994000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1424000000</v>
+      </c>
+      <c r="C4">
         <v>1473000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1734000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1292000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1098000000</v>
       </c>
-      <c r="F4">
-        <v>1012000000</v>
-      </c>
       <c r="G4">
+        <v>371000000</v>
+      </c>
+      <c r="H4">
         <v>364000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>371000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>355000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>746000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>494000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>974000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1251000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1072000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1083000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1071000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1055000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1170000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1589000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1146000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1329000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1136000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>938000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>855000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>891000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>775000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>795000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>693000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>697000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>695000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>881000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>801000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>852000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>942000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>961000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>948000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1063000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1032000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>962000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>995000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1739000000</v>
+      </c>
+      <c r="C5">
         <v>1712000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1562000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1264000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>956000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>912000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1001000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>940000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>988000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1067000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>912000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1015000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>496000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>773000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2179000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1987000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1586000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>966000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1575000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1078000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>585000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>13011000000</v>
+      </c>
+      <c r="C6">
         <v>14799000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>17313000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>15720000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15940000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17471000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19666000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17853000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17404000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>25030000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>18915000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10275000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8249000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>6944000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7134000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7196000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6340000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6726000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7641000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7724000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7804000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7083000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7177000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6880000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7451000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7329000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7638000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>9306000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>9056000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>11973000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>11441000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>12266000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>9158000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>10995000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>10517000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>9746000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>9651000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8951000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8895000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8641000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>38473000000</v>
+        <v>33109000000</v>
       </c>
       <c r="C7">
-        <v>37708000000</v>
+        <v>31512000000</v>
       </c>
       <c r="D7">
-        <v>37444000000</v>
+        <v>30519000000</v>
       </c>
       <c r="E7">
-        <v>35986000000</v>
+        <v>30042000000</v>
       </c>
       <c r="F7">
-        <v>33643000000</v>
+        <v>28749000000</v>
       </c>
       <c r="G7">
+        <v>27816000000</v>
+      </c>
+      <c r="H7">
         <v>27508000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>26862000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>26529000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>26602000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>28473000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>31644000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>31310000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>30796000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>30165000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>29139000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>28335000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>28565000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>28124000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>27096000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>26563000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>25900000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>25367000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>24817000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>24375000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>24105000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>23975000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>23422000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>23039000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>22608000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>22480000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>22023000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>21929000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>21722000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>22048000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>21972000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>21854000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>21297000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>21049000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>20793000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>1738000000</v>
+        <v>2128000000</v>
       </c>
       <c r="C8">
-        <v>1948000000</v>
+        <v>1585000000</v>
       </c>
       <c r="D8">
-        <v>2259000000</v>
+        <v>1771000000</v>
       </c>
       <c r="E8">
-        <v>2185000000</v>
+        <v>1999000000</v>
       </c>
       <c r="F8">
-        <v>2632000000</v>
+        <v>1712000000</v>
       </c>
       <c r="G8">
+        <v>1919000000</v>
+      </c>
+      <c r="H8">
         <v>2143000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1929000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1665000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1562000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1633000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3684000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2568000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>15745000000</v>
+      </c>
+      <c r="C9">
         <v>15747000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>15750000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>15752000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>15754000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15757000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>15759000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15762000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>15764000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>15767000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15770000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15772000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>14944000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>14602000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14605000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>14608000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>14611000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>14629000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>14633000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>14637000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>14641000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>14645000000</v>
-      </c>
-      <c r="W9">
-        <v>14649000000</v>
       </c>
       <c r="X9">
         <v>14649000000</v>
       </c>
       <c r="Y9">
+        <v>14649000000</v>
+      </c>
+      <c r="Z9">
         <v>14638000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>14642000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>14646000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>14650000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>14655000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>14383000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>14388000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>14393000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>14397000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>14408000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>14419000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>14436000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>14452000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>14469000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>14486000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>14503000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>339000000</v>
+      </c>
+      <c r="C10">
         <v>935000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1219000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1534000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1294000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1813000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2158000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2306000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1988000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1305000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>120000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>432000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>804000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1175000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1354000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1422000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2077000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2750000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3064000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3150000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3797000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4489000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4956000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2834000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3374000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>4051000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7595000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3696000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>4102000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>4854000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>4992000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>904000000</v>
+        <v>907000000</v>
       </c>
       <c r="C11">
-        <v>867000000</v>
+        <v>1057000000</v>
       </c>
       <c r="D11">
-        <v>1039000000</v>
+        <v>1044000000</v>
       </c>
       <c r="E11">
-        <v>1300000000</v>
+        <v>1299000000</v>
       </c>
       <c r="F11">
-        <v>1467000000</v>
+        <v>1773000000</v>
       </c>
       <c r="G11">
+        <v>2180000000</v>
+      </c>
+      <c r="H11">
         <v>2422000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2794000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2913000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2929000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1820000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1875000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1714000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>5062000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4708000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4862000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4986000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4651000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4594000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3446000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3309000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2878000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2545000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2363000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1733000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1722000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1578000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1475000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1428000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1848000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1098000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1019000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>926000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1119000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1105000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1159000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1303000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1280000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1342000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1131000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>59264000000</v>
+      </c>
+      <c r="C12">
         <v>57797000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>57492000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>58028000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>56519000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>55312000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>55643000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>55230000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>54592000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>54046000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>53346000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>58463000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>56283000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>56275000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>55384000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>54645000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>53926000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>48277000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>48155000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>46354000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>45867000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>44845000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>44638000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>44579000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>43810000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>43619000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>43996000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>44036000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>44078000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>41673000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>41340000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>41486000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>44847000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>40945000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>41674000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>42421000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>42601000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>37046000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>36877000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>36427000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>72275000000</v>
+      </c>
+      <c r="C13">
         <v>72596000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>74805000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>73748000000</v>
       </c>
-      <c r="E13">
-        <v>79750000000</v>
-      </c>
       <c r="F13">
+        <v>72459000000</v>
+      </c>
+      <c r="G13">
         <v>72783000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>75309000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>73083000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>71996000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>79076000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>72261000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>68738000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>64532000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>63219000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>62518000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>61841000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>60266000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>55003000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>55796000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>54078000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>53671000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>51928000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>51815000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>51459000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>51261000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>50948000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>51634000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>53342000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>53134000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>53646000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>52781000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>53752000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>54005000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>51940000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>52191000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>52167000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>52252000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>45997000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>45772000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>45068000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>5106000000</v>
+      </c>
+      <c r="C14">
         <v>4958000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5353000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4810000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4240000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4017000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3930000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3432000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2840000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2403000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2332000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3337000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3266000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3470000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3359000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3214000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2976000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3265000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3749000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3351000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3634000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3059000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2726000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2353000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2572000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2567000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2956000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2732000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2743000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2688000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2803000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2492000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2622000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2577000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2536000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2341000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2300000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2592000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2571000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2405000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3288000000</v>
+      </c>
+      <c r="C15">
         <v>2796000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2565000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2288000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2457000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2198000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2215000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2182000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2086000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1904000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1809000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1844000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3701000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3119000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2617000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2037000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3287000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2852000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2436000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1915000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3022000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2683000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2259000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1835000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2924000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2628000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2237000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1903000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3195000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2790000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2112000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1622000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2266000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2299000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1802000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1455000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1926000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1769000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1414000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1223000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>2769000000</v>
+        <v>2359000000</v>
       </c>
       <c r="C16">
-        <v>2662000000</v>
+        <v>2031000000</v>
       </c>
       <c r="D16">
-        <v>1860000000</v>
+        <v>1936000000</v>
       </c>
       <c r="E16">
-        <v>2485000000</v>
+        <v>1116000000</v>
       </c>
       <c r="F16">
-        <v>2932000000</v>
+        <v>1782000000</v>
       </c>
       <c r="G16">
+        <v>2296000000</v>
+      </c>
+      <c r="H16">
         <v>2372000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2983000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2410000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5045000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5230000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4337000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2287000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2196000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2281000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3055000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1518000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1176000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1342000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2289000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2242000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1224000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1098000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1040000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1131000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1092000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1115000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1531000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1563000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1705000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1659000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1261000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1184000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1169000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1233000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1578000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1547000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1823000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1695000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1593000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
         <v>1116000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1782000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2983000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5230000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4337000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2287000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>941000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18">
         <v>687000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>790000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>810000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>697000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>789000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>735000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>3434000000</v>
+      </c>
+      <c r="C19">
         <v>3478000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2994000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3038000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2710000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2619000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2757000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2439000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1777000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1284000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1195000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1099000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3219000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3200000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3048000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3013000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2989000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2935000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2799000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2758000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2762000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1759000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1726000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1696000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1648000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1628000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1589000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1605000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1635000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1621000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1561000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1575000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1580000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1584000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1674000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1742000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1861000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1554000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1638000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1715000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>18143000000</v>
+        <v>9260000000</v>
       </c>
       <c r="C20">
-        <v>18309000000</v>
+        <v>10047000000</v>
       </c>
       <c r="D20">
-        <v>17390000000</v>
+        <v>10764000000</v>
       </c>
       <c r="E20">
-        <v>14241000000</v>
+        <v>9909000000</v>
       </c>
       <c r="F20">
-        <v>13975000000</v>
+        <v>7328000000</v>
       </c>
       <c r="G20">
+        <v>7346000000</v>
+      </c>
+      <c r="H20">
         <v>7898000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6205000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5144000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>5479000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5525000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6698000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5852000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6201000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>7683000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>7666000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5736000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6601000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>7422000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>7295000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>5431000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5528000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6365000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6410000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>5057000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>5866000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6850000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>8618000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>7084000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>7425000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>7479000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>8378000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>7068000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5595000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>6406000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>6247000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4268000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5128000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5914000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>5524000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>25941000000</v>
+      </c>
+      <c r="C21">
         <v>25870000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>26324000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>24060000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20966000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>20924000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>23573000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20688000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>15927000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>19725000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20150000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>19392000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>20204000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>20211000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>21164000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>21323000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>18578000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>18158000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>19269000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>20012000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>18959000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>16496000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>16631000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>15953000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>15239000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>15147000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>16250000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>18108000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>17526000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>17608000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>17082000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>17319000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>16847000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>14813000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>15209000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>15010000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>14152000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>14134000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>14775000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>14068000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>28067000000</v>
+        <v>20671000000</v>
       </c>
       <c r="C22">
-        <v>29909000000</v>
+        <v>21202000000</v>
       </c>
       <c r="D22">
-        <v>31640000000</v>
+        <v>22903000000</v>
       </c>
       <c r="E22">
-        <v>32194000000</v>
+        <v>24441000000</v>
       </c>
       <c r="F22">
-        <v>31265000000</v>
+        <v>25138000000</v>
       </c>
       <c r="G22">
+        <v>25523000000</v>
+      </c>
+      <c r="H22">
         <v>26679000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>26061000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>27425000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>29825000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>19412000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>12662000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>8873000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>7923000000</v>
-      </c>
-      <c r="O22">
-        <v>7710000000</v>
       </c>
       <c r="P22">
         <v>7710000000</v>
       </c>
       <c r="Q22">
+        <v>7710000000</v>
+      </c>
+      <c r="R22">
         <v>8253000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8115000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>8562000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>6360000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6592000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>7584000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7916000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>8187000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>6201000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>6473000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6689000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>6920000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>6766000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>7096000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>7598000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>8305000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>8477000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>8970000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>9089000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>9466000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>9795000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>10077000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>10526000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>10721000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>4532000000</v>
+        <v>4448000000</v>
       </c>
       <c r="C23">
-        <v>5013000000</v>
+        <v>4382000000</v>
       </c>
       <c r="D23">
-        <v>4906000000</v>
+        <v>4763000000</v>
       </c>
       <c r="E23">
-        <v>4979000000</v>
+        <v>4606000000</v>
       </c>
       <c r="F23">
-        <v>4967000000</v>
+        <v>4849000000</v>
       </c>
       <c r="G23">
+        <v>4837000000</v>
+      </c>
+      <c r="H23">
         <v>4644000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4846000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5405000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5805000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5786000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5718000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3509000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3496000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3606000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3611000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3652000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3607000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3692000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3636000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3559000000</v>
-      </c>
-      <c r="V23">
-        <v>2281000000</v>
       </c>
       <c r="W23">
         <v>2281000000</v>
       </c>
       <c r="X23">
+        <v>2281000000</v>
+      </c>
+      <c r="Y23">
         <v>2261000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2278000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2275000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2294000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2276000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2246000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2265000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2347000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2455000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2602000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2386000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2432000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2527000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2559000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2568000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2582000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2616000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>3843000000</v>
+      </c>
+      <c r="C24">
         <v>5470000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5654000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5862000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6035000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8408000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>8644000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>10396000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10630000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9272000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>8160000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8285000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>8452000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>8457000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>8516000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>9086000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>9163000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8902000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>9052000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>9193000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9810000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9565000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>9623000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>10291000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>13378000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>12587000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>12576000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>12695000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>13855000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>13867000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>13869000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>14170000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>15138000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>11529000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>11523000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>11811000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>12392000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>15379000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>15356000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>15865000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>-339000000</v>
+      </c>
+      <c r="C25">
         <v>-935000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-1219000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-1534000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-1294000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-1813000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-2158000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-2306000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-1988000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-1305000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>447000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1502000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1456000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1245000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>163000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1993000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2037000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2047000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>9537000000</v>
+        <v>4050000000</v>
       </c>
       <c r="C26">
-        <v>9748000000</v>
+        <v>4217000000</v>
       </c>
       <c r="D26">
-        <v>10151000000</v>
+        <v>4344000000</v>
       </c>
       <c r="E26">
-        <v>10433000000</v>
+        <v>4589000000</v>
       </c>
       <c r="F26">
-        <v>13021000000</v>
+        <v>4528000000</v>
       </c>
       <c r="G26">
+        <v>4743000000</v>
+      </c>
+      <c r="H26">
         <v>4855000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5042000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5362000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5236000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4245000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1666000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1386000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1378000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2025000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1395000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>969000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2517000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2365000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2320000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2221000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2001000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1885000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1822000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1878000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1956000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2015000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2091000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1891000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2465000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2322000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2457000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2128000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1946000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1735000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1712000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1711000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1709000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1680000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1694000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>39878000000</v>
+      </c>
+      <c r="C27">
         <v>42136000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>44670000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>46697000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>47606000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>49253000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>50455000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>51913000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>54535000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>55994000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>43421000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>35037000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>28970000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>27940000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>27396000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>27607000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>28001000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>23141000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>23671000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>21509000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>22182000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>21431000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>21705000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>22561000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>23735000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>23291000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>23574000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>23982000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>24758000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>25693000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>26136000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>27387000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>28345000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>24831000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>24779000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>25516000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>26457000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>31726000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>32181000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>32943000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>65819000000</v>
+      </c>
+      <c r="C28">
         <v>68006000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>70994000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>70757000000</v>
       </c>
-      <c r="E28">
-        <v>75863000000</v>
-      </c>
       <c r="F28">
+        <v>68572000000</v>
+      </c>
+      <c r="G28">
         <v>70177000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>74028000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>72601000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>70462000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>75719000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>63571000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>54429000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>49174000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>48151000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>48560000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>48930000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>46579000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>41299000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>42940000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>41521000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>41141000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>37927000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>38336000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>38514000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>38974000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>38438000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>39824000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>42090000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>42284000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>43301000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>43218000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>44706000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>45192000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>39644000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>39988000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>40526000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>40609000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>45860000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>46956000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>47011000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>11507000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>11485000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11462000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11447000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>11428000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>11396000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>11326000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>11259000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>11241000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>11192000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>11054000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11129000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>11177000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11201000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>11254000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>11671000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>11740000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>11807000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>11967000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12053000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>12133000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>12279000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>12443000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>12294000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>8887000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>9361000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>10339000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>12936000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>11285000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>11681000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>12578000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>12981000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>13464000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>13687000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>13876000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>13982000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>14096000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>14150000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>14120000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="F30">
         <v>0</v>
       </c>
       <c r="H30">
@@ -3649,1108 +3838,1129 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="Q30">
+      <c r="O30">
         <v>0</v>
       </c>
-      <c r="AN30">
+      <c r="R30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>342000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-353000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-1088000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-148000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>259000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-953000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-1605000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-428000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>327000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5706000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11423000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>12454000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11772000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>10686000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9656000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>10039000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9696000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>8851000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>8465000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>8256000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>9502000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>8905000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>8226000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>7903000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>11109000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>10000000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>8462000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>5562000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>6748000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>5540000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>4127000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3456000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>4244000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3962000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3211000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>3049000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-5379000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-6748000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-7382000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>313000000</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C32">
         <v>313000000</v>
       </c>
       <c r="D32">
+        <v>313000000</v>
+      </c>
+      <c r="E32">
         <v>312000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>282000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>281000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>280000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>279000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>259000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>272000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>271000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>270000000</v>
-      </c>
-      <c r="M32">
-        <v>236000000</v>
       </c>
       <c r="N32">
         <v>236000000</v>
       </c>
       <c r="O32">
+        <v>236000000</v>
+      </c>
+      <c r="P32">
         <v>235000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>233000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>198000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>197000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>196000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>194000000</v>
-      </c>
-      <c r="U32">
-        <v>158000000</v>
       </c>
       <c r="V32">
         <v>158000000</v>
       </c>
       <c r="W32">
+        <v>158000000</v>
+      </c>
+      <c r="X32">
         <v>156000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>153000000</v>
-      </c>
-      <c r="Y32">
-        <v>274000000</v>
       </c>
       <c r="Z32">
         <v>274000000</v>
       </c>
       <c r="AA32">
+        <v>274000000</v>
+      </c>
+      <c r="AB32">
         <v>272000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>270000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>373000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>372000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>370000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>365000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>313000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>312000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>309000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>307000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>258000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>256000000</v>
-      </c>
-      <c r="AM32">
-        <v>255000000</v>
       </c>
       <c r="AN32">
         <v>255000000</v>
       </c>
+      <c r="AO32">
+        <v>255000000</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>6456000000</v>
+      </c>
+      <c r="C33">
         <v>4590000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3811000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2991000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3887000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2606000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1281000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>482000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1534000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3357000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>8690000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>14309000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>15358000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>15068000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>13958000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>12911000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>13687000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>13704000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>12856000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>12557000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>12530000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>14001000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>13479000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>12945000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>12287000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>12510000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>11810000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>11252000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>10850000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>10345000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>9563000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>9046000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>8813000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>12296000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>12203000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>11641000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>11643000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>137000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-1184000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-1943000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>6456000000</v>
+      </c>
+      <c r="C34">
         <v>4590000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3811000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>2991000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3887000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2606000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1281000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>482000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1534000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3357000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>8690000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>14309000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>15358000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>15068000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>13958000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>12911000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>13687000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>13704000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>12856000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>12557000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>12530000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>14001000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>13479000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>12945000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>12287000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>12510000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>11810000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>11252000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>10850000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>10345000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>9563000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>9046000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>8813000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>12296000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>12203000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>11641000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>11643000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>137000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-1184000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-1943000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>72275000000</v>
+      </c>
+      <c r="C35">
         <v>72596000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>74805000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>73748000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>72459000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>72783000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>75309000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>73083000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>71996000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>79076000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>72261000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>68738000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>64532000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>63219000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>62518000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>61841000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>60266000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>55003000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>55796000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>54078000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>53671000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>51928000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>51815000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>51459000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>51261000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>50948000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>51634000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>53342000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>53134000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>53646000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>52781000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>53752000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>54005000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>51940000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>52191000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>52167000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>52252000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>45997000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>45772000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>45068000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>641188400</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>641198000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>641076000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>639967500</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>640014000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>639915000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>639661400</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>638182000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>637734300</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>637857000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>637836000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>642771000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>646742900</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>650200000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>654996500</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>679944000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>685619000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>691331300</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>702478200</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>707198000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>712973000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>724030200</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>735531000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>730737700</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>736384600</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>748908000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>771581400</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>778784000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>786473600</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>795398000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>816297000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>825258000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>836941000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>843006000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>848014000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>851443000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>855546000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>857951000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>856421000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>-9289000000</v>
+      </c>
+      <c r="C37">
         <v>-11157000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-11939000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-12761000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-11867000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-13151000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-14478000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-15280000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-14230000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-12410000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>-7080000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-1463000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>414000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>466000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-647000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-1697000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-924000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>-925000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>-1777000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>-2080000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-2111000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-644000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-1170000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>-1704000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>-2351000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>-2132000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>-2836000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-3398000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>-3805000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>-4038000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-4825000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>-5347000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>-5584000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>-2112000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>-2216000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>-2795000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>-2809000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>-14332000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>-15670000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>-16446000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>22319000000</v>
+        <v>16496000000</v>
       </c>
       <c r="C38">
-        <v>21647000000</v>
+        <v>14865000000</v>
       </c>
       <c r="D38">
-        <v>23375000000</v>
+        <v>14069000000</v>
       </c>
       <c r="E38">
-        <v>23197000000</v>
+        <v>15602000000</v>
       </c>
       <c r="F38">
-        <v>20833000000</v>
+        <v>15601000000</v>
       </c>
       <c r="G38">
+        <v>14617000000</v>
+      </c>
+      <c r="H38">
         <v>13821000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>15009000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>15739000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>13345000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>8974000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>11032000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>8278000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>8220000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>7982000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>8855000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>8206000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>7433000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>7498000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>6679000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>6195000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>6370000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>6026000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>6577000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>4083000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>4413000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>4853000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>5537000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>4892000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>4990000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>5470000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>5997000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>6356000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>5628000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>6120000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>7261000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>7539000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>7710000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>8125000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>8429000000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
-        <v>30836000000</v>
+        <v>23030000000</v>
       </c>
       <c r="C39">
-        <v>32571000000</v>
+        <v>23233000000</v>
       </c>
       <c r="D39">
-        <v>33500000000</v>
+        <v>24839000000</v>
       </c>
       <c r="E39">
-        <v>34679000000</v>
+        <v>25557000000</v>
       </c>
       <c r="F39">
-        <v>34197000000</v>
+        <v>26920000000</v>
       </c>
       <c r="G39">
+        <v>27819000000</v>
+      </c>
+      <c r="H39">
         <v>29051000000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>29044000000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>29835000000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>34870000000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>24642000000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>16999000000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>11160000000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>10119000000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>9991000000</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>10765000000</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>9771000000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>9291000000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>9904000000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>8649000000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>8834000000</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>8808000000</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>9014000000</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>9227000000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>7332000000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>7565000000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>7804000000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>8451000000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>8329000000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>8801000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>9257000000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>9566000000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>9661000000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>10139000000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>10322000000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>11044000000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>11342000000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>11900000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>12221000000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>12314000000</v>
       </c>
     </row>
